--- a/Demosponge Measurements.xlsx
+++ b/Demosponge Measurements.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892CF21-EA12-C84C-988B-2ECDEA74B617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE33EE33-91FD-AC40-9BC5-CFE6AEBFC522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="500" windowWidth="26840" windowHeight="15440" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="26840" windowHeight="15440" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Demosponge Measurements.xlsx
+++ b/Demosponge Measurements.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE33EE33-91FD-AC40-9BC5-CFE6AEBFC522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F347F8-AEB9-2F4D-B1A1-475A91804663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="26840" windowHeight="15440" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
+    <workbookView xWindow="32920" yWindow="500" windowWidth="28520" windowHeight="16940" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>Species</t>
   </si>
@@ -45,49 +44,61 @@
     <t>Neopetrosia problematica</t>
   </si>
   <si>
+    <t>Tethya californiana</t>
+  </si>
+  <si>
+    <t>Callyspongia vaginalis</t>
+  </si>
+  <si>
+    <t>Cliona delitrix</t>
+  </si>
+  <si>
+    <t>Osculum_Diameter</t>
+  </si>
+  <si>
+    <t>Excurrent_Velocity</t>
+  </si>
+  <si>
+    <t>Geodia barretti</t>
+  </si>
+  <si>
+    <t>Aphocallistes vastus</t>
+  </si>
+  <si>
+    <t>Osculum_Area</t>
+  </si>
+  <si>
     <t>Haliclona mollis</t>
   </si>
   <si>
-    <t>Tethya californiana</t>
-  </si>
-  <si>
-    <t>Callyspongia vaginalis</t>
-  </si>
-  <si>
-    <t>Cliona delitrix</t>
-  </si>
-  <si>
-    <t>Ostia_Diameter</t>
-  </si>
-  <si>
-    <t>Large_Incurrent_Canal_Diameter</t>
-  </si>
-  <si>
-    <t>Medium_Incurrent_Canal_Diameter</t>
-  </si>
-  <si>
-    <t>Small_Incurrent_Canal_Diameter</t>
-  </si>
-  <si>
-    <t>Prosopyle_Diameter</t>
-  </si>
-  <si>
-    <t>Apopyle_Diameter</t>
-  </si>
-  <si>
-    <t>Small_Excurrent_Canal_Diameter</t>
-  </si>
-  <si>
-    <t>Medium_Excurrent_Canal_Diameter</t>
-  </si>
-  <si>
-    <t>Large_Excurrent_Canal_Diameter</t>
-  </si>
-  <si>
-    <t>Osculum_Diameter</t>
-  </si>
-  <si>
-    <t>Excurrent_Velocity</t>
+    <t>Tethya leysae</t>
+  </si>
+  <si>
+    <t>Ostia_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Large_Incurrent_Canal_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Medium_Incurrent_Canal_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Small_Incurrent_Canal_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Prosopyle_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Apopyle_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Small_Excurrent_Canal_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Medium_Excurrent_Canal_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>Large_Excurrent_Canal_Area_Per_1mm3</t>
   </si>
 </sst>
 </file>
@@ -140,10 +151,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -308,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,18 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BF36F2-199D-1544-8250-4F7F2B1302BF}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
@@ -478,237 +489,1037 @@
     <col min="10" max="10" width="32.33203125" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
     <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2">
+        <f>SQRT(M2/PI())*2</f>
+        <v>521.39159356904918</v>
+      </c>
+      <c r="L2">
+        <v>5000</v>
+      </c>
+      <c r="M2">
+        <v>213509.85756652564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2">
+        <f>SQRT(M3/PI())*2</f>
+        <v>593.01131796040193</v>
+      </c>
+      <c r="L3">
+        <v>20000</v>
+      </c>
+      <c r="M3">
+        <v>276195.0213400572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2">
+        <f>SQRT(M4/PI())*2</f>
+        <v>279.31692512627632</v>
+      </c>
+      <c r="L4">
+        <v>24000</v>
+      </c>
+      <c r="M4">
+        <v>61275.150449576875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2">
+        <f>SQRT(M5/PI())*2</f>
+        <v>651.7394919613115</v>
+      </c>
+      <c r="L5">
+        <v>29000</v>
+      </c>
+      <c r="M5">
+        <v>333609.15244769637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2">
+        <f>SQRT(M6/PI())*2</f>
+        <v>270.72255819931394</v>
+      </c>
+      <c r="L6">
+        <v>33000</v>
+      </c>
+      <c r="M6">
+        <v>57562.383937129118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2">
+        <f>SQRT(M7/PI())*2</f>
+        <v>243.50706293059991</v>
+      </c>
+      <c r="L7">
+        <v>37000</v>
+      </c>
+      <c r="M7">
+        <v>46570.72578547724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2">
+        <f>SQRT(M8/PI())*2</f>
+        <v>501.33807073947037</v>
+      </c>
+      <c r="L8">
+        <v>43000</v>
+      </c>
+      <c r="M8">
+        <v>197401.86535366648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2">
+        <f>SQRT(M9/PI())*2</f>
+        <v>415.39440146984685</v>
+      </c>
+      <c r="L9">
+        <v>52000</v>
+      </c>
+      <c r="M9">
+        <v>135522.42347953754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2">
+        <f>SQRT(M10/PI())*2</f>
+        <v>409.66482351853858</v>
+      </c>
+      <c r="M10">
+        <v>131809.65696708977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2">
+        <f>SQRT(M11/PI())*2</f>
+        <v>587.28174000909382</v>
+      </c>
+      <c r="M11">
+        <v>270883.70257919451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2">
+        <f>SQRT(M12/PI())*2</f>
+        <v>273.60000000000002</v>
+      </c>
+      <c r="L12">
+        <v>34919.934000000001</v>
+      </c>
+      <c r="M12">
+        <v>58792.518901516254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2">
+        <f>SQRT(M13/PI())*2</f>
+        <v>129.95000000000002</v>
+      </c>
+      <c r="L13">
+        <v>35787.939999999995</v>
+      </c>
+      <c r="M13">
+        <v>13263.020748788122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2">
+        <f>SQRT(M14/PI())*2</f>
+        <v>136.79999999999998</v>
+      </c>
+      <c r="L14">
+        <v>36403.196000000004</v>
+      </c>
+      <c r="M14">
+        <v>14698.129725379062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2">
+        <f>SQRT(M15/PI())*2</f>
+        <v>157.94999999999999</v>
+      </c>
+      <c r="L15">
+        <v>52080.425999999999</v>
+      </c>
+      <c r="M15">
+        <v>19594.272423567625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2">
+        <f>SQRT(M16/PI())*2</f>
+        <v>174.8</v>
+      </c>
+      <c r="L16">
+        <v>54066.653000000006</v>
+      </c>
+      <c r="M16">
+        <v>23997.872298535571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2">
+        <f>SQRT(M17/PI())*2</f>
+        <v>209.66</v>
+      </c>
+      <c r="L17">
+        <v>62147.527000000002</v>
+      </c>
+      <c r="M17">
+        <v>34523.994940122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2">
+        <f>SQRT(M18/PI())*2</f>
+        <v>118.745</v>
+      </c>
+      <c r="L18">
+        <v>62644.243000000002</v>
+      </c>
+      <c r="M18">
+        <v>11074.40864785025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2">
+        <f>SQRT(M19/PI())*2</f>
+        <v>151.94999999999999</v>
+      </c>
+      <c r="L19">
+        <v>70467.73</v>
+      </c>
+      <c r="M19">
+        <v>18133.903078546409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2">
+        <f>SQRT(M20/PI())*2</f>
+        <v>130.85</v>
+      </c>
+      <c r="L20">
+        <v>90475.873999999996</v>
+      </c>
+      <c r="M20">
+        <v>13447.369405700767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2">
+        <f>SQRT(M21/PI())*2</f>
+        <v>182.99999999999983</v>
+      </c>
+      <c r="L21">
+        <v>94329.891000000003</v>
+      </c>
+      <c r="M21">
+        <v>26302.199094017102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2">
+        <f>SQRT(M22/PI())*2</f>
+        <v>175.79569107347311</v>
+      </c>
+      <c r="M22">
+        <v>24272.043016405161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2">
+        <f>SQRT(M23/PI())*2</f>
+        <v>195.43219028604273</v>
+      </c>
+      <c r="M23">
+        <v>29997.294034677827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2">
+        <f>SQRT(M24/PI())*2</f>
+        <v>687.22350076230668</v>
+      </c>
+      <c r="L24">
+        <v>124653.51999999999</v>
+      </c>
+      <c r="M24">
+        <v>370924.81297243625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2">
+        <f>SQRT(M25/PI())*2</f>
+        <v>113.512925223165</v>
+      </c>
+      <c r="L25">
+        <v>47300.000000000007</v>
+      </c>
+      <c r="M25">
+        <v>10120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2">
+        <f>SQRT(M26/PI())*2</f>
+        <v>164.02302149470967</v>
+      </c>
+      <c r="L26">
+        <v>52380.132986526136</v>
+      </c>
+      <c r="M26">
+        <v>21130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2">
+        <f>SQRT(M27/PI())*2</f>
+        <v>141.96965166245081</v>
+      </c>
+      <c r="L27">
+        <v>55626.220401947969</v>
+      </c>
+      <c r="M27">
+        <v>15830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2">
+        <f>SQRT(M28/PI())*2</f>
+        <v>183.30518701215451</v>
+      </c>
+      <c r="L28">
+        <v>91448.705009949801</v>
+      </c>
+      <c r="M28">
+        <v>26389.999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2">
+        <f>SQRT(M29/PI())*2</f>
+        <v>37.76</v>
+      </c>
+      <c r="L29">
+        <v>11248.633025000001</v>
+      </c>
+      <c r="M29">
+        <v>1119.8345243797576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2">
+        <f>SQRT(M30/PI())*2</f>
+        <v>32.86</v>
+      </c>
+      <c r="L30">
+        <v>14924.856</v>
+      </c>
+      <c r="M30">
+        <v>848.05691471403122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2">
+        <f>SQRT(M31/PI())*2</f>
+        <v>39.164999999999999</v>
+      </c>
+      <c r="L31">
+        <v>22024.286</v>
+      </c>
+      <c r="M31">
+        <v>1204.7200633554423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2">
+        <f>SQRT(M32/PI())*2</f>
+        <v>30.549999999999997</v>
+      </c>
+      <c r="M32">
+        <v>733.01406939424692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2">
+        <f>SQRT(M33/PI())*2</f>
+        <v>23.529999999999998</v>
+      </c>
+      <c r="M33">
+        <v>434.84425400497827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2">
+        <f>SQRT(M34/PI())*2</f>
+        <v>81.226842834515864</v>
+      </c>
+      <c r="L34">
+        <v>15200</v>
+      </c>
+      <c r="M34">
+        <v>5181.9000000000015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2">
+        <f>SQRT(M35/PI())*2</f>
+        <v>52.448394030707171</v>
+      </c>
+      <c r="L35">
+        <v>19400</v>
+      </c>
+      <c r="M35">
+        <v>2160.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2">
+        <f>SQRT(M36/PI())*2</f>
+        <v>77.393157257587234</v>
+      </c>
+      <c r="L36">
+        <v>22315.321457142862</v>
+      </c>
+      <c r="M36">
+        <v>4704.3000000000011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>166443.18</v>
+      </c>
+      <c r="C37">
+        <v>159300.61140334368</v>
+      </c>
+      <c r="D37">
+        <v>72081.099000000002</v>
+      </c>
+      <c r="E37">
+        <v>57873.356340634564</v>
+      </c>
+      <c r="F37">
+        <v>4941214.6396773811</v>
+      </c>
+      <c r="G37">
+        <v>2079494.5546303398</v>
+      </c>
+      <c r="H37">
+        <v>46612.540519000657</v>
+      </c>
+      <c r="I37">
+        <v>34716.095186080114</v>
+      </c>
+      <c r="J37">
+        <v>12128.013291497442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B38">
+        <v>44375.139943068876</v>
+      </c>
+      <c r="C38">
+        <v>144281.45224313461</v>
+      </c>
+      <c r="D38">
+        <v>32127.633000000002</v>
+      </c>
+      <c r="E38">
+        <v>41574.365485735041</v>
+      </c>
+      <c r="F38">
+        <v>3458139.9320581635</v>
+      </c>
+      <c r="G38">
+        <v>445718.86137536127</v>
+      </c>
+      <c r="H38">
+        <v>67850.297889605456</v>
+      </c>
+      <c r="I38">
+        <v>63316.55999999999</v>
+      </c>
+      <c r="J38">
+        <v>131074.67641156248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>24.460004166666668</v>
-      </c>
-      <c r="C2" s="1">
-        <v>383.33430000000004</v>
-      </c>
-      <c r="D2" s="1">
-        <v>155.81196666666668</v>
-      </c>
-      <c r="E2" s="1">
-        <v>33.032133878467214</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.5972208333333331</v>
-      </c>
-      <c r="G2">
-        <v>16.045883333333332</v>
-      </c>
-      <c r="H2">
-        <v>45.18236293740982</v>
-      </c>
-      <c r="I2">
-        <v>129.72900833333333</v>
-      </c>
-      <c r="J2">
-        <v>282.42599999999999</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3464.3125</v>
-      </c>
-      <c r="L2">
-        <v>13.657279016666701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14.283964285714285</v>
-      </c>
-      <c r="C3" s="1">
-        <v>332.62233333333336</v>
-      </c>
-      <c r="D3" s="1">
-        <v>140.34078571428572</v>
-      </c>
-      <c r="E3" s="1">
-        <v>51.276387668918915</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3719999999999999</v>
-      </c>
-      <c r="G3">
-        <v>14.094890873015876</v>
-      </c>
-      <c r="H3">
-        <v>51.887600659769078</v>
-      </c>
-      <c r="I3">
-        <v>154.54222222222225</v>
-      </c>
-      <c r="J3">
-        <v>411.13499999999999</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5527.2805823964381</v>
-      </c>
-      <c r="L3">
-        <v>30.442925199999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B39">
+        <v>67923.54154530332</v>
+      </c>
+      <c r="C39">
+        <v>217027.24917123394</v>
+      </c>
+      <c r="D39">
+        <v>248135.81168118314</v>
+      </c>
+      <c r="E39">
+        <v>36625.67276943857</v>
+      </c>
+      <c r="F39">
+        <v>1716940.5653593238</v>
+      </c>
+      <c r="G39">
+        <v>1103106.381576702</v>
+      </c>
+      <c r="H39">
+        <v>24702.616351275839</v>
+      </c>
+      <c r="I39">
+        <v>248135.81168118314</v>
+      </c>
+      <c r="J39">
+        <v>217027.24917123394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>40.571164682539695</v>
-      </c>
-      <c r="C4" s="1">
-        <v>678.32799999999997</v>
-      </c>
-      <c r="D4" s="1">
-        <v>169.580625</v>
-      </c>
-      <c r="E4" s="1">
-        <v>34.714500000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.5172142857142861</v>
-      </c>
-      <c r="G4">
-        <v>0.90052500000000002</v>
-      </c>
-      <c r="H4">
-        <v>34.867312499999997</v>
-      </c>
-      <c r="I4">
-        <v>169.580625</v>
-      </c>
-      <c r="J4">
-        <v>678.32799999999997</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8666.0337602158215</v>
-      </c>
-      <c r="L4">
-        <v>21.946702275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B40">
+        <v>384714.54201444046</v>
+      </c>
+      <c r="C40">
+        <v>140516.5127072632</v>
+      </c>
+      <c r="D40">
+        <v>26980.583898811772</v>
+      </c>
+      <c r="E40">
+        <v>36651.154155832068</v>
+      </c>
+      <c r="F40">
+        <v>551576.98793055059</v>
+      </c>
+      <c r="G40">
+        <v>402528.42858589464</v>
+      </c>
+      <c r="H40">
+        <v>5168.0734247053197</v>
+      </c>
+      <c r="I40">
+        <v>28734.333938444626</v>
+      </c>
+      <c r="J40">
+        <v>30390.099043091945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>31.19580952380953</v>
-      </c>
-      <c r="C5" s="1">
-        <v>406.50412499999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>194.959</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43.806322727272722</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.6144999999999998</v>
-      </c>
-      <c r="G5">
-        <v>5.9745000000000008</v>
-      </c>
-      <c r="H5">
-        <v>52.886501262626268</v>
-      </c>
-      <c r="I5">
-        <v>178.83952380952383</v>
-      </c>
-      <c r="J5">
-        <v>339.41449999999998</v>
-      </c>
-      <c r="K5" s="3">
-        <v>16209.05</v>
-      </c>
-      <c r="L5">
-        <v>59.332341400000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>37.251791666666669</v>
-      </c>
-      <c r="C6" s="1">
-        <v>294.14950000000005</v>
-      </c>
-      <c r="D6" s="1">
-        <v>144.33046153846155</v>
-      </c>
-      <c r="E6" s="1">
-        <v>60.145624999999995</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.5878333333333332</v>
-      </c>
-      <c r="G6">
-        <v>4.2334999999999994</v>
-      </c>
-      <c r="H6">
-        <v>60.145624999999995</v>
-      </c>
-      <c r="I6">
-        <v>144.33046153846155</v>
-      </c>
-      <c r="J6">
-        <v>294.14950000000005</v>
-      </c>
-      <c r="K6" s="3">
-        <v>22666.25</v>
-      </c>
-      <c r="L6">
-        <v>110.40727649999999</v>
+      <c r="B41">
+        <v>139345.71176914021</v>
+      </c>
+      <c r="C41">
+        <v>33092.437600061792</v>
+      </c>
+      <c r="D41">
+        <v>25676.058220450592</v>
+      </c>
+      <c r="E41">
+        <v>17099.093839186491</v>
+      </c>
+      <c r="F41">
+        <v>177301.6434987477</v>
+      </c>
+      <c r="G41">
+        <v>521015.76848277362</v>
+      </c>
+      <c r="H41">
+        <v>17099.093839186491</v>
+      </c>
+      <c r="I41">
+        <v>25676.058220450592</v>
+      </c>
+      <c r="J41">
+        <v>33092.437600061792</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Demosponge Measurements.xlsx
+++ b/Demosponge Measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F347F8-AEB9-2F4D-B1A1-475A91804663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5A908-919C-EC4B-ADAB-A42EAFB30FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32920" yWindow="500" windowWidth="28520" windowHeight="16940" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
+    <workbookView xWindow="1260" yWindow="9380" windowWidth="53680" windowHeight="26140" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Species</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Geodia barretti</t>
   </si>
   <si>
-    <t>Aphocallistes vastus</t>
-  </si>
-  <si>
     <t>Osculum_Area</t>
   </si>
   <si>
@@ -99,13 +96,45 @@
   </si>
   <si>
     <t>Large_Excurrent_Canal_Area_Per_1mm3</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ludeman, D.A., Reidenbach, M.A., and Leys, S.P. 2017. The energetic cost of filtration by demosponges and their behavioural response to ambient currents. Journal of Experimental Biology, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 995–1007.</t>
+    </r>
+  </si>
+  <si>
+    <t>﻿Suarez, P.A., and Leys, S.P. 2022. The sponge pump as a morphological character in the fossil record. Paleobiology, 48: 446–461.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,16 +156,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,17 +187,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BF36F2-199D-1544-8250-4F7F2B1302BF}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:J41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M26" sqref="K2:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,38 +559,39 @@
     <col min="12" max="12" width="26.5" customWidth="1"/>
     <col min="13" max="13" width="27.5" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -531,12 +600,15 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -547,20 +619,23 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="2">
-        <f>SQRT(M2/PI())*2</f>
-        <v>521.39159356904918</v>
-      </c>
-      <c r="L2">
-        <v>5000</v>
-      </c>
-      <c r="M2">
-        <v>213509.85756652564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:K26" si="0">SQRT(M2/PI())*2</f>
+        <v>273.60000000000002</v>
+      </c>
+      <c r="L2" s="7">
+        <v>34919.934000000001</v>
+      </c>
+      <c r="M2" s="7">
+        <v>58792.518901516254</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -571,20 +646,21 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="2">
-        <f>SQRT(M3/PI())*2</f>
-        <v>593.01131796040193</v>
-      </c>
-      <c r="L3">
-        <v>20000</v>
-      </c>
-      <c r="M3">
-        <v>276195.0213400572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>129.95000000000002</v>
+      </c>
+      <c r="L3" s="7">
+        <v>35787.939999999995</v>
+      </c>
+      <c r="M3" s="7">
+        <v>13263.020748788122</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -595,20 +671,21 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2">
-        <f>SQRT(M4/PI())*2</f>
-        <v>279.31692512627632</v>
-      </c>
-      <c r="L4">
-        <v>24000</v>
-      </c>
-      <c r="M4">
-        <v>61275.150449576875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>136.79999999999998</v>
+      </c>
+      <c r="L4" s="7">
+        <v>36403.196000000004</v>
+      </c>
+      <c r="M4" s="7">
+        <v>14698.129725379062</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -619,20 +696,23 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2">
-        <f>SQRT(M5/PI())*2</f>
-        <v>651.7394919613115</v>
-      </c>
-      <c r="L5">
-        <v>29000</v>
-      </c>
-      <c r="M5">
-        <v>333609.15244769637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>157.94999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>52080.425999999999</v>
+      </c>
+      <c r="M5" s="7">
+        <v>19594.272423567625</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -643,20 +723,21 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="2">
-        <f>SQRT(M6/PI())*2</f>
-        <v>270.72255819931394</v>
-      </c>
-      <c r="L6">
-        <v>33000</v>
-      </c>
-      <c r="M6">
-        <v>57562.383937129118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>174.8</v>
+      </c>
+      <c r="L6" s="7">
+        <v>54066.653000000006</v>
+      </c>
+      <c r="M6" s="7">
+        <v>23997.872298535571</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -667,20 +748,21 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="2">
-        <f>SQRT(M7/PI())*2</f>
-        <v>243.50706293059991</v>
-      </c>
-      <c r="L7">
-        <v>37000</v>
-      </c>
-      <c r="M7">
-        <v>46570.72578547724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>209.66</v>
+      </c>
+      <c r="L7" s="7">
+        <v>62147.527000000002</v>
+      </c>
+      <c r="M7" s="7">
+        <v>34523.994940122</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -691,20 +773,20 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="2">
-        <f>SQRT(M8/PI())*2</f>
-        <v>501.33807073947037</v>
-      </c>
-      <c r="L8">
-        <v>43000</v>
-      </c>
-      <c r="M8">
-        <v>197401.86535366648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>118.745</v>
+      </c>
+      <c r="L8" s="7">
+        <v>62644.243000000002</v>
+      </c>
+      <c r="M8" s="7">
+        <v>11074.40864785025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -715,20 +797,20 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2">
-        <f>SQRT(M9/PI())*2</f>
-        <v>415.39440146984685</v>
-      </c>
-      <c r="L9">
-        <v>52000</v>
-      </c>
-      <c r="M9">
-        <v>135522.42347953754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>151.94999999999999</v>
+      </c>
+      <c r="L9" s="7">
+        <v>70467.73</v>
+      </c>
+      <c r="M9" s="7">
+        <v>18133.903078546409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -739,17 +821,20 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2">
-        <f>SQRT(M10/PI())*2</f>
-        <v>409.66482351853858</v>
-      </c>
-      <c r="M10">
-        <v>131809.65696708977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>130.85</v>
+      </c>
+      <c r="L10" s="7">
+        <v>90475.873999999996</v>
+      </c>
+      <c r="M10" s="7">
+        <v>13447.369405700767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -760,15 +845,18 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2">
-        <f>SQRT(M11/PI())*2</f>
-        <v>587.28174000909382</v>
-      </c>
-      <c r="M11">
-        <v>270883.70257919451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>182.99999999999983</v>
+      </c>
+      <c r="L11" s="7">
+        <v>94329.891000000003</v>
+      </c>
+      <c r="M11" s="7">
+        <v>26302.199094017102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -781,18 +869,16 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2">
-        <f>SQRT(M12/PI())*2</f>
-        <v>273.60000000000002</v>
-      </c>
-      <c r="L12">
-        <v>34919.934000000001</v>
-      </c>
-      <c r="M12">
-        <v>58792.518901516254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>175.79569107347311</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
+        <v>24272.043016405161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -805,20 +891,18 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2">
-        <f>SQRT(M13/PI())*2</f>
-        <v>129.95000000000002</v>
-      </c>
-      <c r="L13">
-        <v>35787.939999999995</v>
-      </c>
-      <c r="M13">
-        <v>13263.020748788122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>195.43219028604273</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <v>29997.294034677827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -829,20 +913,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2">
-        <f>SQRT(M14/PI())*2</f>
-        <v>136.79999999999998</v>
-      </c>
-      <c r="L14">
-        <v>36403.196000000004</v>
-      </c>
-      <c r="M14">
-        <v>14698.129725379062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>687.22350076230668</v>
+      </c>
+      <c r="L14" s="7">
+        <v>124653.51999999999</v>
+      </c>
+      <c r="M14" s="7">
+        <v>370924.81297243625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -853,20 +937,20 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2">
-        <f>SQRT(M15/PI())*2</f>
-        <v>157.94999999999999</v>
-      </c>
-      <c r="L15">
-        <v>52080.425999999999</v>
-      </c>
-      <c r="M15">
-        <v>19594.272423567625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>113.512925223165</v>
+      </c>
+      <c r="L15" s="7">
+        <v>47300.000000000007</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -877,20 +961,20 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2">
-        <f>SQRT(M16/PI())*2</f>
-        <v>174.8</v>
-      </c>
-      <c r="L16">
-        <v>54066.653000000006</v>
-      </c>
-      <c r="M16">
-        <v>23997.872298535571</v>
+      <c r="K16" s="6">
+        <f t="shared" si="0"/>
+        <v>164.02302149470967</v>
+      </c>
+      <c r="L16" s="7">
+        <v>52380.132986526136</v>
+      </c>
+      <c r="M16" s="7">
+        <v>21130</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -901,20 +985,20 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2">
-        <f>SQRT(M17/PI())*2</f>
-        <v>209.66</v>
-      </c>
-      <c r="L17">
-        <v>62147.527000000002</v>
-      </c>
-      <c r="M17">
-        <v>34523.994940122</v>
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>141.96965166245081</v>
+      </c>
+      <c r="L17" s="7">
+        <v>55626.220401947969</v>
+      </c>
+      <c r="M17" s="7">
+        <v>15830</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -925,20 +1009,20 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2">
-        <f>SQRT(M18/PI())*2</f>
-        <v>118.745</v>
-      </c>
-      <c r="L18">
-        <v>62644.243000000002</v>
-      </c>
-      <c r="M18">
-        <v>11074.40864785025</v>
+      <c r="K18" s="6">
+        <f t="shared" si="0"/>
+        <v>183.30518701215451</v>
+      </c>
+      <c r="L18" s="7">
+        <v>91448.705009949801</v>
+      </c>
+      <c r="M18" s="7">
+        <v>26389.999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -949,20 +1033,20 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2">
-        <f>SQRT(M19/PI())*2</f>
-        <v>151.94999999999999</v>
-      </c>
-      <c r="L19">
-        <v>70467.73</v>
-      </c>
-      <c r="M19">
-        <v>18133.903078546409</v>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>37.76</v>
+      </c>
+      <c r="L19" s="7">
+        <v>11248.633025000001</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1119.8345243797576</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -973,20 +1057,20 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2">
-        <f>SQRT(M20/PI())*2</f>
-        <v>130.85</v>
-      </c>
-      <c r="L20">
-        <v>90475.873999999996</v>
-      </c>
-      <c r="M20">
-        <v>13447.369405700767</v>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>32.86</v>
+      </c>
+      <c r="L20" s="7">
+        <v>14924.856</v>
+      </c>
+      <c r="M20" s="7">
+        <v>848.05691471403122</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -997,20 +1081,20 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2">
-        <f>SQRT(M21/PI())*2</f>
-        <v>182.99999999999983</v>
-      </c>
-      <c r="L21">
-        <v>94329.891000000003</v>
-      </c>
-      <c r="M21">
-        <v>26302.199094017102</v>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>39.164999999999999</v>
+      </c>
+      <c r="L21" s="7">
+        <v>22024.286</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1204.7200633554423</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1021,17 +1105,18 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="2">
-        <f>SQRT(M22/PI())*2</f>
-        <v>175.79569107347311</v>
-      </c>
-      <c r="M22">
-        <v>24272.043016405161</v>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>30.549999999999997</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>733.01406939424692</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1042,17 +1127,18 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2">
-        <f>SQRT(M23/PI())*2</f>
-        <v>195.43219028604273</v>
-      </c>
-      <c r="M23">
-        <v>29997.294034677827</v>
+      <c r="K23" s="6">
+        <f t="shared" si="0"/>
+        <v>23.529999999999998</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>434.84425400497827</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1063,20 +1149,20 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="2">
-        <f>SQRT(M24/PI())*2</f>
-        <v>687.22350076230668</v>
-      </c>
-      <c r="L24">
-        <v>124653.51999999999</v>
-      </c>
-      <c r="M24">
-        <v>370924.81297243625</v>
+      <c r="K24" s="6">
+        <f t="shared" si="0"/>
+        <v>81.226842834515864</v>
+      </c>
+      <c r="L24" s="7">
+        <v>15200</v>
+      </c>
+      <c r="M24" s="7">
+        <v>5181.9000000000015</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1087,20 +1173,20 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2">
-        <f>SQRT(M25/PI())*2</f>
-        <v>113.512925223165</v>
-      </c>
-      <c r="L25">
-        <v>47300.000000000007</v>
-      </c>
-      <c r="M25">
-        <v>10120</v>
+      <c r="K25" s="6">
+        <f t="shared" si="0"/>
+        <v>52.448394030707171</v>
+      </c>
+      <c r="L25" s="7">
+        <v>19400</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2160.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1111,408 +1197,174 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2">
-        <f>SQRT(M26/PI())*2</f>
-        <v>164.02302149470967</v>
-      </c>
-      <c r="L26">
-        <v>52380.132986526136</v>
-      </c>
-      <c r="M26">
-        <v>21130</v>
+      <c r="K26" s="6">
+        <f t="shared" si="0"/>
+        <v>77.393157257587234</v>
+      </c>
+      <c r="L26" s="7">
+        <v>22315.321457142862</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4704.3000000000011</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2">
-        <f>SQRT(M27/PI())*2</f>
-        <v>141.96965166245081</v>
-      </c>
-      <c r="L27">
-        <v>55626.220401947969</v>
-      </c>
-      <c r="M27">
-        <v>15830</v>
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>166443.18</v>
+      </c>
+      <c r="C27">
+        <v>159300.61140334368</v>
+      </c>
+      <c r="D27">
+        <v>72081.099000000002</v>
+      </c>
+      <c r="E27">
+        <v>57873.356340634564</v>
+      </c>
+      <c r="F27">
+        <v>4941214.6396773811</v>
+      </c>
+      <c r="G27">
+        <v>2079494.5546303398</v>
+      </c>
+      <c r="H27">
+        <v>46612.540519000657</v>
+      </c>
+      <c r="I27">
+        <v>34716.095186080114</v>
+      </c>
+      <c r="J27">
+        <v>12128.013291497442</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2">
-        <f>SQRT(M28/PI())*2</f>
-        <v>183.30518701215451</v>
-      </c>
-      <c r="L28">
-        <v>91448.705009949801</v>
-      </c>
-      <c r="M28">
-        <v>26389.999999999996</v>
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>44375.139943068876</v>
+      </c>
+      <c r="C28">
+        <v>144281.45224313461</v>
+      </c>
+      <c r="D28">
+        <v>32127.633000000002</v>
+      </c>
+      <c r="E28">
+        <v>41574.365485735041</v>
+      </c>
+      <c r="F28">
+        <v>3458139.9320581635</v>
+      </c>
+      <c r="G28">
+        <v>445718.86137536127</v>
+      </c>
+      <c r="H28">
+        <v>67850.297889605456</v>
+      </c>
+      <c r="I28">
+        <v>63316.55999999999</v>
+      </c>
+      <c r="J28">
+        <v>131074.67641156248</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2">
-        <f>SQRT(M29/PI())*2</f>
-        <v>37.76</v>
-      </c>
-      <c r="L29">
-        <v>11248.633025000001</v>
-      </c>
-      <c r="M29">
-        <v>1119.8345243797576</v>
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>67923.54154530332</v>
+      </c>
+      <c r="C29">
+        <v>217027.24917123394</v>
+      </c>
+      <c r="D29">
+        <v>248135.81168118314</v>
+      </c>
+      <c r="E29">
+        <v>36625.67276943857</v>
+      </c>
+      <c r="F29">
+        <v>1716940.5653593238</v>
+      </c>
+      <c r="G29">
+        <v>1103106.381576702</v>
+      </c>
+      <c r="H29">
+        <v>24702.616351275839</v>
+      </c>
+      <c r="I29">
+        <v>248135.81168118314</v>
+      </c>
+      <c r="J29">
+        <v>217027.24917123394</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2">
-        <f>SQRT(M30/PI())*2</f>
-        <v>32.86</v>
-      </c>
-      <c r="L30">
-        <v>14924.856</v>
-      </c>
-      <c r="M30">
-        <v>848.05691471403122</v>
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>384714.54201444046</v>
+      </c>
+      <c r="C30">
+        <v>140516.5127072632</v>
+      </c>
+      <c r="D30">
+        <v>26980.583898811772</v>
+      </c>
+      <c r="E30">
+        <v>36651.154155832068</v>
+      </c>
+      <c r="F30">
+        <v>551576.98793055059</v>
+      </c>
+      <c r="G30">
+        <v>402528.42858589464</v>
+      </c>
+      <c r="H30">
+        <v>5168.0734247053197</v>
+      </c>
+      <c r="I30">
+        <v>28734.333938444626</v>
+      </c>
+      <c r="J30">
+        <v>30390.099043091945</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2">
-        <f>SQRT(M31/PI())*2</f>
-        <v>39.164999999999999</v>
-      </c>
-      <c r="L31">
-        <v>22024.286</v>
-      </c>
-      <c r="M31">
-        <v>1204.7200633554423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="2">
-        <f>SQRT(M32/PI())*2</f>
-        <v>30.549999999999997</v>
-      </c>
-      <c r="M32">
-        <v>733.01406939424692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="2">
-        <f>SQRT(M33/PI())*2</f>
-        <v>23.529999999999998</v>
-      </c>
-      <c r="M33">
-        <v>434.84425400497827</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="2">
-        <f>SQRT(M34/PI())*2</f>
-        <v>81.226842834515864</v>
-      </c>
-      <c r="L34">
-        <v>15200</v>
-      </c>
-      <c r="M34">
-        <v>5181.9000000000015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="2">
-        <f>SQRT(M35/PI())*2</f>
-        <v>52.448394030707171</v>
-      </c>
-      <c r="L35">
-        <v>19400</v>
-      </c>
-      <c r="M35">
-        <v>2160.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="2">
-        <f>SQRT(M36/PI())*2</f>
-        <v>77.393157257587234</v>
-      </c>
-      <c r="L36">
-        <v>22315.321457142862</v>
-      </c>
-      <c r="M36">
-        <v>4704.3000000000011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>166443.18</v>
-      </c>
-      <c r="C37">
-        <v>159300.61140334368</v>
-      </c>
-      <c r="D37">
-        <v>72081.099000000002</v>
-      </c>
-      <c r="E37">
-        <v>57873.356340634564</v>
-      </c>
-      <c r="F37">
-        <v>4941214.6396773811</v>
-      </c>
-      <c r="G37">
-        <v>2079494.5546303398</v>
-      </c>
-      <c r="H37">
-        <v>46612.540519000657</v>
-      </c>
-      <c r="I37">
-        <v>34716.095186080114</v>
-      </c>
-      <c r="J37">
-        <v>12128.013291497442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <v>44375.139943068876</v>
-      </c>
-      <c r="C38">
-        <v>144281.45224313461</v>
-      </c>
-      <c r="D38">
-        <v>32127.633000000002</v>
-      </c>
-      <c r="E38">
-        <v>41574.365485735041</v>
-      </c>
-      <c r="F38">
-        <v>3458139.9320581635</v>
-      </c>
-      <c r="G38">
-        <v>445718.86137536127</v>
-      </c>
-      <c r="H38">
-        <v>67850.297889605456</v>
-      </c>
-      <c r="I38">
-        <v>63316.55999999999</v>
-      </c>
-      <c r="J38">
-        <v>131074.67641156248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39">
-        <v>67923.54154530332</v>
-      </c>
-      <c r="C39">
-        <v>217027.24917123394</v>
-      </c>
-      <c r="D39">
-        <v>248135.81168118314</v>
-      </c>
-      <c r="E39">
-        <v>36625.67276943857</v>
-      </c>
-      <c r="F39">
-        <v>1716940.5653593238</v>
-      </c>
-      <c r="G39">
-        <v>1103106.381576702</v>
-      </c>
-      <c r="H39">
-        <v>24702.616351275839</v>
-      </c>
-      <c r="I39">
-        <v>248135.81168118314</v>
-      </c>
-      <c r="J39">
-        <v>217027.24917123394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>384714.54201444046</v>
-      </c>
-      <c r="C40">
-        <v>140516.5127072632</v>
-      </c>
-      <c r="D40">
-        <v>26980.583898811772</v>
-      </c>
-      <c r="E40">
-        <v>36651.154155832068</v>
-      </c>
-      <c r="F40">
-        <v>551576.98793055059</v>
-      </c>
-      <c r="G40">
-        <v>402528.42858589464</v>
-      </c>
-      <c r="H40">
-        <v>5168.0734247053197</v>
-      </c>
-      <c r="I40">
-        <v>28734.333938444626</v>
-      </c>
-      <c r="J40">
-        <v>30390.099043091945</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41">
+      <c r="B31">
         <v>139345.71176914021</v>
       </c>
-      <c r="C41">
+      <c r="C31">
         <v>33092.437600061792</v>
       </c>
-      <c r="D41">
+      <c r="D31">
         <v>25676.058220450592</v>
       </c>
-      <c r="E41">
+      <c r="E31">
         <v>17099.093839186491</v>
       </c>
-      <c r="F41">
+      <c r="F31">
         <v>177301.6434987477</v>
       </c>
-      <c r="G41">
+      <c r="G31">
         <v>521015.76848277362</v>
       </c>
-      <c r="H41">
+      <c r="H31">
         <v>17099.093839186491</v>
       </c>
-      <c r="I41">
+      <c r="I31">
         <v>25676.058220450592</v>
       </c>
-      <c r="J41">
+      <c r="J31">
         <v>33092.437600061792</v>
       </c>
     </row>
@@ -1520,6 +1372,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M36">
     <sortCondition ref="A1:A36"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O5:O7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Demosponge Measurements.xlsx
+++ b/Demosponge Measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5A908-919C-EC4B-ADAB-A42EAFB30FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7146700-D868-DC40-94CD-E8399090A9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="9380" windowWidth="53680" windowHeight="26140" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
+    <workbookView xWindow="5680" yWindow="500" windowWidth="53680" windowHeight="26140" xr2:uid="{926EA85D-CAED-A643-9C12-2AD07D7D0875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Species</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>﻿Suarez, P.A., and Leys, S.P. 2022. The sponge pump as a morphological character in the fossil record. Paleobiology, 48: 446–461.</t>
+  </si>
+  <si>
+    <t>*All data listed in μm</t>
   </si>
 </sst>
 </file>
@@ -211,17 +214,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +543,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M26" sqref="K2:M26"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,17 +622,17 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <f t="shared" ref="K2:K26" si="0">SQRT(M2/PI())*2</f>
         <v>273.60000000000002</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>34919.934000000001</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="5">
         <v>58792.518901516254</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -646,17 +649,17 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>129.95000000000002</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>35787.939999999995</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>13263.020748788122</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -671,17 +674,17 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>136.79999999999998</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>36403.196000000004</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>14698.129725379062</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -696,17 +699,17 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>157.94999999999999</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>52080.425999999999</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>19594.272423567625</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -723,17 +726,17 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>174.8</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>54066.653000000006</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>23997.872298535571</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -748,17 +751,17 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>209.66</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>62147.527000000002</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <v>34523.994940122</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -773,15 +776,18 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>118.745</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>62644.243000000002</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>11074.40864785025</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -797,14 +803,14 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>151.94999999999999</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>70467.73</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>18133.903078546409</v>
       </c>
     </row>
@@ -821,14 +827,14 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>130.85</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>90475.873999999996</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <v>13447.369405700767</v>
       </c>
     </row>
@@ -845,14 +851,14 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>182.99999999999983</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>94329.891000000003</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>26302.199094017102</v>
       </c>
     </row>
@@ -869,12 +875,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>175.79569107347311</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
         <v>24272.043016405161</v>
       </c>
     </row>
@@ -891,12 +897,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>195.43219028604273</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
         <v>29997.294034677827</v>
       </c>
     </row>
@@ -913,14 +919,14 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>687.22350076230668</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>124653.51999999999</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <v>370924.81297243625</v>
       </c>
     </row>
@@ -937,14 +943,14 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>113.512925223165</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>47300.000000000007</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <v>10120</v>
       </c>
     </row>
@@ -961,14 +967,14 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>164.02302149470967</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>52380.132986526136</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>21130</v>
       </c>
     </row>
@@ -985,14 +991,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>141.96965166245081</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>55626.220401947969</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>15830</v>
       </c>
     </row>
@@ -1009,14 +1015,14 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>183.30518701215451</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>91448.705009949801</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>26389.999999999996</v>
       </c>
     </row>
@@ -1033,14 +1039,14 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>37.76</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>11248.633025000001</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <v>1119.8345243797576</v>
       </c>
     </row>
@@ -1057,14 +1063,14 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6">
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>32.86</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>14924.856</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="5">
         <v>848.05691471403122</v>
       </c>
     </row>
@@ -1081,14 +1087,14 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>39.164999999999999</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>22024.286</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="5">
         <v>1204.7200633554423</v>
       </c>
     </row>
@@ -1105,12 +1111,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>30.549999999999997</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
         <v>733.01406939424692</v>
       </c>
     </row>
@@ -1127,12 +1133,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>23.529999999999998</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
         <v>434.84425400497827</v>
       </c>
     </row>
@@ -1149,14 +1155,14 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>81.226842834515864</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>15200</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <v>5181.9000000000015</v>
       </c>
     </row>
@@ -1173,14 +1179,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>52.448394030707171</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>19400</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="5">
         <v>2160.5</v>
       </c>
     </row>
@@ -1197,14 +1203,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>77.393157257587234</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>22315.321457142862</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <v>4704.3000000000011</v>
       </c>
     </row>
